--- a/Jogos_do_Dia/2023-12-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,28 +682,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>1.95</v>
       </c>
       <c r="I2" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O2" t="n">
         <v>1.08</v>
@@ -718,16 +718,16 @@
         <v>2.72</v>
       </c>
       <c r="S2" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>1.7</v>
@@ -754,19 +754,19 @@
         <v>1.99</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.52</v>
@@ -787,16 +787,16 @@
         <v>1.61</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,98 +808,98 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Voluntari</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>U Craiova 1948</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.61</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD3" t="n">
         <v>2.75</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.35</v>
-      </c>
       <c r="AE3" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,53 +947,53 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Voluntari</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>U Craiova 1948</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>2.1</v>
       </c>
       <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.6</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L4" t="n">
-        <v>2.85</v>
+        <v>4.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="S4" t="n">
         <v>2.1</v>
@@ -1002,79 +1002,79 @@
         <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.22</v>
+        <v>2.25</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="AB4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AH4" t="n">
         <v>1.38</v>
       </c>
-      <c r="AC4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,128 +1086,128 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Gorica</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Varaždin</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -1238,61 +1238,61 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Z6" t="n">
         <v>0.5</v>
@@ -1325,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Varaždin</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="K7" t="n">
-        <v>3.23</v>
+        <v>2.8</v>
       </c>
       <c r="L7" t="n">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.44</v>
       </c>
-      <c r="N7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>2.2</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>1.62</v>
       </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AH7" t="n">
         <v>1.33</v>
       </c>
-      <c r="Y7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AI7" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.14</v>
+        <v>2.01</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -1528,10 +1528,10 @@
         <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1.39</v>
@@ -1552,10 +1552,10 @@
         <v>3.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
         <v>1.68</v>
@@ -1588,43 +1588,43 @@
         <v>3.17</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.4</v>
@@ -1691,7 +1691,7 @@
         <v>3.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T9" t="n">
         <v>1.8</v>
@@ -1736,34 +1736,34 @@
         <v>2.1</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>4.35</v>
       </c>
       <c r="J10" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.51</v>
@@ -1942,13 +1942,13 @@
         <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.3</v>
@@ -1969,10 +1969,10 @@
         <v>4.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
         <v>1.48</v>
@@ -2014,10 +2014,10 @@
         <v>2.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AJ11" t="n">
         <v>1.26</v>
@@ -2084,10 +2084,10 @@
         <v>1.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.3</v>
@@ -2108,10 +2108,10 @@
         <v>4.33</v>
       </c>
       <c r="S12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="U12" t="n">
         <v>1.62</v>
@@ -2220,13 +2220,13 @@
         <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.49</v>
@@ -2247,10 +2247,10 @@
         <v>2.71</v>
       </c>
       <c r="S13" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
@@ -2350,40 +2350,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H14" t="n">
         <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="S14" t="n">
         <v>1.56</v>
@@ -2398,13 +2398,13 @@
         <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Z14" t="n">
         <v>1.14</v>
@@ -2422,43 +2422,43 @@
         <v>3.02</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="15">
@@ -2597,7 +2597,7 @@
         <v>2.79</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="16">
@@ -2709,10 +2709,10 @@
         <v>1.92</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AJ16" t="n">
         <v>1.25</v>
@@ -2776,13 +2776,13 @@
         <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.71</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.33</v>
@@ -2803,10 +2803,10 @@
         <v>3.89</v>
       </c>
       <c r="S17" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="T17" t="n">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="U17" t="n">
         <v>1.62</v>
@@ -3036,94 +3036,94 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.01</v>
       </c>
       <c r="H19" t="n">
-        <v>2.49</v>
+        <v>2.53</v>
       </c>
       <c r="I19" t="n">
-        <v>3.32</v>
+        <v>6.22</v>
       </c>
       <c r="J19" t="n">
-        <v>2.33</v>
+        <v>1.43</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P19" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z19" t="n">
         <v>2.67</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P19" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AA19" t="n">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.91</v>
+        <v>2.81</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.85</v>
+        <v>1.31</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.28</v>
+        <v>4.34</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -3132,28 +3132,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AK19" t="n">
-        <v>3.08</v>
+        <v>2.79</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="20">
@@ -3175,124 +3175,124 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>2.49</v>
       </c>
       <c r="I20" t="n">
-        <v>2.9</v>
+        <v>3.32</v>
       </c>
       <c r="J20" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>2.25</v>
+        <v>2.67</v>
       </c>
       <c r="M20" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="N20" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA20" t="n">
         <v>1.25</v>
       </c>
-      <c r="R20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AB20" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.49</v>
+        <v>2.91</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.79</v>
+        <v>3.08</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.13</v>
+        <v>1.98</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="21">
@@ -3314,124 +3314,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.64</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="N21" t="n">
-        <v>3.48</v>
+        <v>2.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="R21" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="S21" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="T21" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>1.57</v>
       </c>
       <c r="V21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="X21" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.93</v>
+        <v>2.49</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.98</v>
+        <v>1.86</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.7</v>
+        <v>9.1</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.35</v>
+        <v>2.24</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.96</v>
+        <v>3.9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.76</v>
+        <v>2.79</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AN21" t="n">
         <v>2.13</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="22">
@@ -3453,124 +3453,124 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.01</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.53</v>
+        <v>2.35</v>
       </c>
       <c r="I22" t="n">
-        <v>6.22</v>
+        <v>2.1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.43</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R22" t="n">
         <v>4.6</v>
       </c>
-      <c r="L22" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P22" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4.05</v>
-      </c>
       <c r="S22" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="T22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W22" t="n">
         <v>2.15</v>
       </c>
-      <c r="U22" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.09</v>
-      </c>
       <c r="X22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y22" t="n">
         <v>1.19</v>
       </c>
-      <c r="Y22" t="n">
-        <v>2.77</v>
-      </c>
       <c r="Z22" t="n">
-        <v>2.67</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.31</v>
+        <v>3.98</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="AG22" t="n">
-        <v>4.34</v>
+        <v>1.35</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AK22" t="n">
-        <v>2.79</v>
+        <v>2.76</v>
       </c>
       <c r="AL22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO22" t="n">
         <v>1.7</v>
       </c>
-      <c r="AM22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AP22" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="23">
@@ -3682,10 +3682,10 @@
         <v>2.25</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ23" t="n">
         <v>1.3</v>
@@ -3821,10 +3821,10 @@
         <v>3.46</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ24" t="n">
         <v>1.31</v>
@@ -4027,43 +4027,43 @@
         <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="K26" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="S26" t="n">
         <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="U26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
         <v>1.3</v>
@@ -4090,13 +4090,13 @@
         <v>3.06</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
@@ -4105,28 +4105,28 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="27">
@@ -4157,61 +4157,61 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="I27" t="n">
         <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z27" t="n">
         <v>1.88</v>
@@ -4229,13 +4229,13 @@
         <v>2.42</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -4244,34 +4244,34 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -4283,134 +4283,134 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>Real Oviedo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Elche CF</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R28" t="n">
         <v>2.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="S28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
         <v>1.25</v>
       </c>
-      <c r="N28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P28" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AC28" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AD28" t="n">
         <v>2.48</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AF28" t="n">
         <v>8</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AI28" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AK28" t="n">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AM28" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -4422,134 +4422,134 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Śląsk Wrocław</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.91</v>
+        <v>2.75</v>
       </c>
       <c r="H29" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>4.07</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L29" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M29" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="N29" t="n">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="O29" t="n">
         <v>1.05</v>
       </c>
       <c r="P29" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="T29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.8</v>
       </c>
-      <c r="U29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="X29" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.67</v>
+        <v>0.57</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.22</v>
+        <v>1.25</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AF29" t="n">
         <v>8.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>3.07</v>
+        <v>2.78</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AK29" t="n">
-        <v>2.47</v>
+        <v>3.25</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -4561,134 +4561,134 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Real Oviedo</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Elche CF</t>
+          <t>Śląsk Wrocław</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="H30" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="I30" t="n">
-        <v>3.85</v>
+        <v>4.07</v>
       </c>
       <c r="J30" t="n">
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="K30" t="n">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.83</v>
       </c>
       <c r="O30" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="P30" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="R30" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>1.35</v>
       </c>
       <c r="X30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="AC30" t="n">
         <v>1.23</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.48</v>
+        <v>2.99</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.63</v>
+        <v>3.07</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AI30" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="AL30" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4700,128 +4700,128 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K31" t="n">
         <v>4</v>
       </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.05</v>
-      </c>
       <c r="L31" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="N31" t="n">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P31" t="n">
-        <v>7.1</v>
+        <v>22</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG31" t="n">
         <v>2.8</v>
       </c>
-      <c r="S31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="AH31" t="n">
         <v>1.2</v>
       </c>
-      <c r="AD31" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AM31" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="AN31" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="32">
@@ -4861,13 +4861,13 @@
         <v>4.2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K32" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>1.32</v>
@@ -4888,10 +4888,10 @@
         <v>4.7</v>
       </c>
       <c r="S32" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="T32" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="U32" t="n">
         <v>1.52</v>
@@ -5000,13 +5000,13 @@
         <v>2.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.73</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="L33" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="M33" t="n">
         <v>1.53</v>
@@ -5027,10 +5027,10 @@
         <v>2.58</v>
       </c>
       <c r="S33" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="U33" t="n">
         <v>2.2</v>
@@ -5105,7 +5105,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -5117,134 +5117,134 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Olympique Lyonnais</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="J34" t="n">
-        <v>1.58</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>4.42</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
-        <v>4.77</v>
+        <v>1.91</v>
       </c>
       <c r="M34" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="N34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI34" t="n">
         <v>4</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P34" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R34" t="n">
-        <v>6</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>1.66</v>
+        <v>1.35</v>
       </c>
       <c r="AK34" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="AL34" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.63</v>
+        <v>2.05</v>
       </c>
       <c r="AN34" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.65</v>
+        <v>2.41</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -5256,128 +5256,128 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Olympique Lyonnais</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y35" t="n">
         <v>2.4</v>
       </c>
-      <c r="I35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="Z35" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK35" t="n">
         <v>2.06</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>2.8</v>
-      </c>
       <c r="AL35" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="AM35" t="n">
-        <v>2.05</v>
+        <v>1.63</v>
       </c>
       <c r="AN35" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.41</v>
+        <v>3.65</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36">
@@ -5417,13 +5417,13 @@
         <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="K36" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>3.96</v>
+        <v>3.9</v>
       </c>
       <c r="M36" t="n">
         <v>1.5</v>
@@ -5444,10 +5444,10 @@
         <v>2.8</v>
       </c>
       <c r="S36" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="U36" t="n">
         <v>2</v>
@@ -5556,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K37" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="L37" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T37" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-12-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -685,19 +685,19 @@
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="L2" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -712,16 +712,16 @@
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -739,10 +739,10 @@
         <v>1.28</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AB2" t="n">
         <v>0.76</v>
@@ -754,13 +754,13 @@
         <v>1.99</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="AH2" t="n">
         <v>1.24</v>
@@ -830,10 +830,10 @@
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>2.63</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -869,19 +869,19 @@
         <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AB3" t="n">
         <v>1.38</v>
@@ -893,43 +893,43 @@
         <v>2.75</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.4</v>
@@ -996,10 +996,10 @@
         <v>3.4</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1017,10 +1017,10 @@
         <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AB4" t="n">
         <v>1.57</v>
@@ -1241,19 +1241,19 @@
         <v>3.75</v>
       </c>
       <c r="H6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.55</v>
@@ -1274,16 +1274,16 @@
         <v>2.55</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1310,19 +1310,19 @@
         <v>2.93</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AJ6" t="n">
         <v>1.9</v>
@@ -1331,22 +1331,22 @@
         <v>1.9</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
@@ -1383,16 +1383,16 @@
         <v>1.83</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.6</v>
@@ -1407,22 +1407,22 @@
         <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>1.3</v>
@@ -1452,10 +1452,10 @@
         <v>1.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="AH7" t="n">
         <v>1.33</v>
@@ -1525,10 +1525,10 @@
         <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>3.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T8" t="n">
         <v>1.9</v>
@@ -1630,7 +1630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1646,130 +1646,130 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Železničar Pančevo</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>4.35</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="N9" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="O9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P9" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="R9" t="n">
-        <v>3.4</v>
+        <v>2.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="W9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="Y9" t="n">
         <v>1.68</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.88</v>
+        <v>1.44</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="AE9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM9" t="n">
         <v>1.95</v>
       </c>
-      <c r="AF9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AN9" t="n">
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1785,124 +1785,124 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Železničar Pančevo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.35</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R10" t="n">
         <v>3.4</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.67</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X10" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="Y10" t="n">
         <v>1.68</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.44</v>
+        <v>0.88</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.07</v>
+        <v>2.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.65</v>
+        <v>2.75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.47</v>
+        <v>2.08</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="11">
@@ -1942,13 +1942,13 @@
         <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="M11" t="n">
         <v>1.3</v>
@@ -1969,10 +1969,10 @@
         <v>4.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="U11" t="n">
         <v>1.48</v>
@@ -2081,13 +2081,13 @@
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1.3</v>
@@ -2108,10 +2108,10 @@
         <v>4.33</v>
       </c>
       <c r="S12" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="T12" t="n">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="U12" t="n">
         <v>1.62</v>
@@ -2223,10 +2223,10 @@
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.49</v>
@@ -2247,10 +2247,10 @@
         <v>2.71</v>
       </c>
       <c r="S13" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
@@ -2350,22 +2350,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.4</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.3</v>
@@ -2386,16 +2386,16 @@
         <v>2.12</v>
       </c>
       <c r="S14" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
         <v>1.32</v>
@@ -2422,13 +2422,13 @@
         <v>3.02</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="AH14" t="n">
         <v>1.2</v>
@@ -2443,7 +2443,7 @@
         <v>2.67</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="AM14" t="n">
         <v>2.08</v>
@@ -2776,13 +2776,13 @@
         <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K17" t="n">
         <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.33</v>
@@ -2803,10 +2803,10 @@
         <v>3.89</v>
       </c>
       <c r="S17" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>1.62</v>
@@ -2930,16 +2930,16 @@
         <v>3.4</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="S18" t="n">
         <v>1.62</v>
@@ -2954,13 +2954,13 @@
         <v>2.38</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Z18" t="n">
         <v>1.5</v>
@@ -2978,43 +2978,43 @@
         <v>3.09</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="19">
@@ -3036,124 +3036,124 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN19" t="n">
         <v>2.01</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P19" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2.11</v>
-      </c>
       <c r="AO19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="20">
@@ -3175,124 +3175,124 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.49</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.32</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="N20" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="O20" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P20" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="R20" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="S20" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="T20" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="V20" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.91</v>
+        <v>2.49</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AI20" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AK20" t="n">
-        <v>3.08</v>
+        <v>2.79</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="21">
@@ -3314,124 +3314,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.1</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>1.64</v>
       </c>
       <c r="M21" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="N21" t="n">
-        <v>2.95</v>
+        <v>3.48</v>
       </c>
       <c r="O21" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="R21" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="S21" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="U21" t="n">
         <v>1.57</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="X21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AB21" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.49</v>
+        <v>2.93</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.86</v>
+        <v>3.98</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.1</v>
+        <v>10.7</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.24</v>
+        <v>1.35</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.79</v>
+        <v>2.76</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="AN21" t="n">
         <v>2.13</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="22">
@@ -3453,124 +3453,124 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>2.01</v>
       </c>
       <c r="H22" t="n">
-        <v>2.35</v>
+        <v>2.53</v>
       </c>
       <c r="I22" t="n">
-        <v>2.1</v>
+        <v>6.22</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>1.43</v>
       </c>
       <c r="K22" t="n">
-        <v>3.88</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.64</v>
+        <v>6.85</v>
       </c>
       <c r="M22" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="N22" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="R22" t="n">
-        <v>4.6</v>
+        <v>4.05</v>
       </c>
       <c r="S22" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="T22" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="V22" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="W22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM22" t="n">
         <v>2.15</v>
       </c>
-      <c r="X22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>2.08</v>
-      </c>
       <c r="AN22" t="n">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="23">
@@ -3731,124 +3731,124 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
-        <v>2.35</v>
+        <v>2.49</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>3.32</v>
       </c>
       <c r="J24" t="n">
-        <v>1.53</v>
+        <v>2.33</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>4.8</v>
+        <v>2.67</v>
       </c>
       <c r="M24" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.02</v>
       </c>
       <c r="P24" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="R24" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="S24" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="T24" t="n">
         <v>2.35</v>
       </c>
       <c r="U24" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="V24" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="W24" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AB24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO24" t="n">
         <v>1.83</v>
       </c>
-      <c r="AC24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AP24" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="25">
@@ -3960,10 +3960,10 @@
         <v>1.74</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AJ25" t="n">
         <v>1.35</v>
@@ -4018,22 +4018,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L26" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M26" t="n">
         <v>1.26</v>
@@ -4054,16 +4054,16 @@
         <v>4.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T26" t="n">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
         <v>1.3</v>
@@ -4157,19 +4157,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="K27" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
         <v>7.5</v>
@@ -4193,16 +4193,16 @@
         <v>2.66</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="T27" t="n">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="n">
         <v>1.07</v>
@@ -4250,7 +4250,7 @@
         <v>2.93</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="AM27" t="n">
         <v>2.2</v>
@@ -4308,10 +4308,10 @@
         <v>2.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="L28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M28" t="n">
         <v>1.6</v>
@@ -4332,10 +4332,10 @@
         <v>2.5</v>
       </c>
       <c r="S28" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="U28" t="n">
         <v>2.1</v>
@@ -4447,10 +4447,10 @@
         <v>2.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.49</v>
@@ -4471,10 +4471,10 @@
         <v>2.8</v>
       </c>
       <c r="S29" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U29" t="n">
         <v>1.95</v>
@@ -4583,13 +4583,13 @@
         <v>4.07</v>
       </c>
       <c r="J30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M30" t="n">
         <v>1.44</v>
@@ -4610,10 +4610,10 @@
         <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T30" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="U30" t="n">
         <v>1.8</v>
@@ -4752,7 +4752,7 @@
         <v>1.45</v>
       </c>
       <c r="T31" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="U31" t="n">
         <v>1.44</v>
@@ -4861,13 +4861,13 @@
         <v>4.2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K32" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M32" t="n">
         <v>1.32</v>
@@ -4888,10 +4888,10 @@
         <v>4.7</v>
       </c>
       <c r="S32" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="T32" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="U32" t="n">
         <v>1.52</v>
@@ -5003,10 +5003,10 @@
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>1.53</v>
@@ -5021,10 +5021,10 @@
         <v>7.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R33" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="S33" t="n">
         <v>2.25</v>
@@ -5139,13 +5139,13 @@
         <v>2.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M34" t="n">
         <v>1.3</v>
@@ -5166,10 +5166,10 @@
         <v>4.7</v>
       </c>
       <c r="S34" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="T34" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="U34" t="n">
         <v>1.62</v>
@@ -5281,7 +5281,7 @@
         <v>1.57</v>
       </c>
       <c r="K35" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="L35" t="n">
         <v>5</v>
@@ -5305,10 +5305,10 @@
         <v>6</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="T35" t="n">
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
       <c r="U35" t="n">
         <v>1.5</v>
@@ -5417,10 +5417,10 @@
         <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L36" t="n">
         <v>3.9</v>
@@ -5447,7 +5447,7 @@
         <v>2.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U36" t="n">
         <v>2</v>
@@ -5559,10 +5559,10 @@
         <v>2.1</v>
       </c>
       <c r="K37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L37" t="n">
         <v>3.4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.5</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T37" t="n">
         <v>1.8</v>
